--- a/media/Aadhar/1.Aadhar Gaurang N Gandhi APR-22 - Copy.xlsx
+++ b/media/Aadhar/1.Aadhar Gaurang N Gandhi APR-22 - Copy.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My data\DivyaPrakash\media\Aadhar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D9833-5825-47AE-AFCC-7998F69156E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0BDAC0-5D93-43FB-9ABC-D67CDBE25870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GJ-04229-APR-22" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -44,6 +31,9 @@
     <t>Pan Card No.</t>
   </si>
   <si>
+    <t>AHXPG3273D</t>
+  </si>
+  <si>
     <t>Invoice No</t>
   </si>
   <si>
@@ -59,7 +49,14 @@
     <t>Bank Name &amp; Account Number</t>
   </si>
   <si>
+    <t>IDBI BANK
+1862104000015011</t>
+  </si>
+  <si>
     <t>IFSC Code.  Adv.</t>
+  </si>
+  <si>
+    <t>IBKL0001862</t>
   </si>
   <si>
     <t>Party Address</t>
@@ -142,18 +139,10 @@
     <t>(Authorised Sign &amp; Stamp)</t>
   </si>
   <si>
-    <t>AHXPG3273D</t>
-  </si>
-  <si>
-    <t>IDBI BANK
-1862104000015011</t>
-  </si>
-  <si>
-    <t>IBKL0001862</t>
-  </si>
-  <si>
-    <t>Gaurang N Gandhi
-1st Floor, Amar Complex, Ramosana Cross Road, Mehsana - 384002.</t>
+    <t xml:space="preserve">
+Gaurang N Gandhi
+1st Floor, Amar Complex, Ramosana Cross Road, Mehsana - 384002.
+</t>
   </si>
 </sst>
 </file>
@@ -205,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -214,17 +203,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -291,19 +269,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -345,11 +310,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,110 +435,130 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,300 +876,301 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>7</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>7</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>8</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F25" s="7">
         <v>1500</v>
@@ -1089,21 +1183,21 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>2</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F26" s="7">
         <v>1500</v>
@@ -1112,25 +1206,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" ref="H26:H28" si="0">SUM(F26:G26)</f>
+        <f>SUM(F26:G26)</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="F27" s="7">
         <v>1500</v>
@@ -1139,25 +1233,25 @@
         <v>0</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(F27:G27)</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>4</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F28" s="7">
         <v>1500</v>
@@ -1166,18 +1260,18 @@
         <v>0</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(F28:G28)</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="7">
         <f>SUM($F$25:F28)</f>
         <v>6000</v>
@@ -1191,119 +1285,119 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="21" t="str">
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="51"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="51"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="51"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="54"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="str">
         <f>$C$7</f>
         <v>Gaurang N Gandhi</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="j2yqLkgZb+0E8CdfJlVmZ5cVmxZkSH6l4xruP1m6+UEePkFuEl0ny4Kw/POHvnxhG9PatTZuSwnsNMUSoXUHnw==" saltValue="rmkq0yODR/5D8yY1AFuh7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A31:H36"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:H22"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A31:H36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:H17"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A1:H2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C14:H17"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C19:H22"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="C4:H6"/>
-    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C11:H11"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="1.5354330708661417" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="1.5354330708661419" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>